--- a/output/output_train.xlsx
+++ b/output/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>output report: 50-year-old male presenting with blurred vision and seeing 'floaters'.
+          <t xml:space="preserve"> 50-year-old male presenting with blurred vision and seeing 'floaters'.
 Vital signs: Blood pressure slightly elevated at 140/85.
 Allergies: None reported.
 Immunizations up to date.
@@ -508,50 +508,15 @@
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-output report: 52-year-old female presenting with cough, fever, and difficulty breathing.
+ 52-year-old female presenting with cough, fever, and difficulty breathing.
 Vital signs: Blood pressure within normal ranges at 120/80.
 Allergies: None reported.
 Immunizations up to date.
 Recent chest X-ray shows opacities consistent with COVID-19.
-Neurological exam reveals reduced reflexes and muscle weakness, suggestive of Guillain-Barré syndrome.
+Neurological examination reveals reduced reflexes and muscle weakness, suggestive of Guillain-Barré syndrome.
 No remarkable findings in the cardiovascular and respiratory system examination.
-Gastrointestinal and neurological examinations show no other abnormalities.
+Gastrointestinal examination show no abnormalities.
 Recommends COVID-19 treatment protocol and further neurological evaluation for Guillain-Barré syndrome.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38-year-old female; reports joint pain and stiffness, particularly in the mornings. BP reads 125/80; blood tests indicate high rheumatoid factor levels. Rheumatologist suspects rheumatoid arthritis. recommends further evaluation and potential rheumatological treatment.
-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>38-year-old female presenting with joint pain and stiffness, especially in the mornings.
-Vital signs: Blood pressure normal at 125/80.
-Allergies: None reported.
-Immunizations up to date.
-Blood tests show high rheumatoid factor levels.
-No remarkable findings in the cardiovascular and respiratory system examination.
-Gastrointestinal and neurological examinations show no abnormalities.
-Rheumatologist suspects rheumatoid arthritis; recommends further evaluation and potential rheumatological treatment.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>output report: 38-year-old female presenting with joint pain and stiffness, particularly in the mornings.
-Vital signs within normal ranges.
-Allergies: None reported.
-Immunizations up to date.
-Laboratory tests indicate high rheumatoid factor levels, suggesting possible rheumatoid arthritis.
-No remarkable findings in the cardiovascular and respiratory system examination.
-Gastrointestinal and neurological examinations show no abnormalities.
-Rheumatologist suspects rheumatoid arthritis and recommends further evaluation and potential rheumatological treatment.</t>
         </is>
       </c>
     </row>
